--- a/MakeExcelTool/桂庙8.5-8.11.xlsx
+++ b/MakeExcelTool/桂庙8.5-8.11.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="71">
   <si>
     <t>日期</t>
   </si>
@@ -146,10 +146,6 @@
   </si>
   <si>
     <t>060469</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>082520</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -303,7 +299,23 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>11:00-21:00</t>
+    <t>年假</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>婚假</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OFF</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>110:00-21:00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>82520</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2321,7 +2333,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB11" sqref="AB11"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2356,7 +2368,7 @@
   <sheetData>
     <row r="1" spans="1:26" s="8" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -2478,37 +2490,37 @@
       </c>
       <c r="C4" s="38"/>
       <c r="D4" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" s="40"/>
       <c r="F4" s="41"/>
       <c r="G4" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H4" s="40"/>
       <c r="I4" s="41"/>
       <c r="J4" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K4" s="40"/>
       <c r="L4" s="41"/>
       <c r="M4" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N4" s="40"/>
       <c r="O4" s="41"/>
       <c r="P4" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q4" s="40"/>
       <c r="R4" s="41"/>
       <c r="S4" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T4" s="40"/>
       <c r="U4" s="41"/>
       <c r="V4" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W4" s="40"/>
       <c r="X4" s="41"/>
@@ -2530,7 +2542,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" s="32" t="s">
         <v>13</v>
@@ -2539,7 +2551,7 @@
         <v>14</v>
       </c>
       <c r="H5" s="32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I5" s="32" t="s">
         <v>13</v>
@@ -2548,7 +2560,7 @@
         <v>14</v>
       </c>
       <c r="K5" s="32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L5" s="32" t="s">
         <v>13</v>
@@ -2557,7 +2569,7 @@
         <v>14</v>
       </c>
       <c r="N5" s="32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O5" s="32" t="s">
         <v>13</v>
@@ -2566,7 +2578,7 @@
         <v>15</v>
       </c>
       <c r="Q5" s="32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R5" s="32" t="s">
         <v>13</v>
@@ -2575,7 +2587,7 @@
         <v>14</v>
       </c>
       <c r="T5" s="32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U5" s="32" t="s">
         <v>13</v>
@@ -2584,13 +2596,13 @@
         <v>14</v>
       </c>
       <c r="W5" s="32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="X5" s="32" t="s">
         <v>13</v>
       </c>
       <c r="Y5" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="8" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -2598,33 +2610,33 @@
         <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="E6" s="32">
         <f>IFERROR((RIGHT(D6,LEN(D6)-FIND("-",D6))-LEFT(D6,FIND("-",D6)-1))*24,0)</f>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="H6" s="32">
         <f>IFERROR((RIGHT(G6,LEN(G6)-FIND("-",G6))-LEFT(G6,FIND("-",G6)-1))*24,0)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J6" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K6" s="32">
         <f>IFERROR((RIGHT(J6,LEN(J6)-FIND("-",J6))-LEFT(J6,FIND("-",J6)-1))*24,0)</f>
@@ -2634,7 +2646,7 @@
         <v>18</v>
       </c>
       <c r="M6" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N6" s="32">
         <f>IFERROR((RIGHT(M6,LEN(M6)-FIND("-",M6))-LEFT(M6,FIND("-",M6)-1))*24,0)</f>
@@ -2664,7 +2676,7 @@
         <v>20</v>
       </c>
       <c r="V6" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W6" s="32">
         <f>IFERROR((RIGHT(V6,LEN(V6)-FIND("-",V6))-LEFT(V6,FIND("-",V6)-1))*24,0)</f>
@@ -2675,7 +2687,7 @@
       </c>
       <c r="Y6" s="32">
         <f>E6+H6+K6+N6+Q6+T6+W6</f>
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:26" s="8" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -2689,7 +2701,7 @@
         <v>22</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="E7" s="32">
         <f t="shared" ref="E7:E17" si="0">IFERROR((RIGHT(D7,LEN(D7)-FIND("-",D7))-LEFT(D7,FIND("-",D7)-1))*24,0)</f>
@@ -2699,17 +2711,17 @@
         <v>21</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H7" s="32">
         <f t="shared" ref="H7:H8" si="1">IFERROR((RIGHT(G7,LEN(G7)-FIND("-",G7))-LEFT(G7,FIND("-",G7)-1))*24,0)</f>
-        <v>10</v>
+        <v>-89</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K7" s="32">
         <f t="shared" ref="K7:K12" si="2">IFERROR((RIGHT(J7,LEN(J7)-FIND("-",J7))-LEFT(J7,FIND("-",J7)-1))*24,0)</f>
@@ -2729,7 +2741,7 @@
         <v>21</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q7" s="32">
         <f t="shared" ref="Q7:Q8" si="4">IFERROR((RIGHT(P7,LEN(P7)-FIND("-",P7))-LEFT(P7,FIND("-",P7)-1))*24,0)</f>
@@ -2739,7 +2751,7 @@
         <v>21</v>
       </c>
       <c r="S7" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T7" s="32">
         <f t="shared" ref="T7:T8" si="5">IFERROR((RIGHT(S7,LEN(S7)-FIND("-",S7))-LEFT(S7,FIND("-",S7)-1))*24,0)</f>
@@ -2760,7 +2772,7 @@
       </c>
       <c r="Y7" s="32">
         <f t="shared" ref="Y7:Y17" si="7">E7+H7+K7+N7+Q7+T7+W7</f>
-        <v>31</v>
+        <v>-68</v>
       </c>
     </row>
     <row r="8" spans="1:26" s="8" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -2774,7 +2786,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" s="32">
         <f t="shared" si="0"/>
@@ -2784,7 +2796,7 @@
         <v>25</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" s="32">
         <f t="shared" si="1"/>
@@ -2804,7 +2816,7 @@
         <v>25</v>
       </c>
       <c r="M8" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N8" s="32">
         <f t="shared" si="3"/>
@@ -2814,7 +2826,7 @@
         <v>25</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="32">
         <f t="shared" si="4"/>
@@ -2824,7 +2836,7 @@
         <v>25</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T8" s="32">
         <f t="shared" si="5"/>
@@ -2881,7 +2893,7 @@
         <v>26</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>27</v>
@@ -2897,7 +2909,7 @@
         <v>28</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" s="32">
         <f>IFERROR((RIGHT(G10,LEN(G10)-FIND("-",G10))-LEFT(G10,FIND("-",G10)-1))*24,0)</f>
@@ -2917,7 +2929,7 @@
         <v>28</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N10" s="32">
         <f t="shared" si="3"/>
@@ -2937,7 +2949,7 @@
         <v>28</v>
       </c>
       <c r="S10" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T10" s="32">
         <f t="shared" ref="T10:T12" si="9">IFERROR((RIGHT(S10,LEN(S10)-FIND("-",S10))-LEFT(S10,FIND("-",S10)-1))*24,0)</f>
@@ -2966,7 +2978,7 @@
         <v>26</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>29</v>
@@ -2992,7 +3004,7 @@
         <v>28</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K11" s="32">
         <f>IFERROR((RIGHT(#REF!,LEN(#REF!)-FIND("-",#REF!))-LEFT(#REF!,FIND("-",#REF!)-1))*24,0)</f>
@@ -3012,7 +3024,7 @@
         <v>28</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q11" s="32">
         <f t="shared" si="8"/>
@@ -3051,10 +3063,10 @@
         <v>26</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="22" t="s">
         <v>19</v>
@@ -3160,13 +3172,13 @@
     </row>
     <row r="14" spans="1:26" s="8" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>19</v>
@@ -3176,57 +3188,57 @@
         <v>0</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H14" s="32">
         <f t="shared" ref="H14" si="11">IFERROR((RIGHT(G14,LEN(G14)-FIND("-",G14))-LEFT(G14,FIND("-",G14)-1))*24,0)</f>
         <v>13.000000000000002</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K14" s="32">
         <f t="shared" ref="K14" si="12">IFERROR((RIGHT(J14,LEN(J14)-FIND("-",J14))-LEFT(J14,FIND("-",J14)-1))*24,0)</f>
         <v>11</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M14" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N14" s="32">
         <f t="shared" ref="N14" si="13">IFERROR((RIGHT(M14,LEN(M14)-FIND("-",M14))-LEFT(M14,FIND("-",M14)-1))*24,0)</f>
         <v>13.000000000000002</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P14" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q14" s="32">
         <f t="shared" ref="Q14" si="14">IFERROR((RIGHT(P14,LEN(P14)-FIND("-",P14))-LEFT(P14,FIND("-",P14)-1))*24,0)</f>
         <v>11</v>
       </c>
       <c r="R14" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S14" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T14" s="32">
         <f t="shared" ref="T14" si="15">IFERROR((RIGHT(S14,LEN(S14)-FIND("-",S14))-LEFT(S14,FIND("-",S14)-1))*24,0)</f>
         <v>13.000000000000002</v>
       </c>
       <c r="U14" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V14" s="22" t="s">
         <v>19</v>
@@ -3236,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="X14" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y14" s="32">
         <f t="shared" si="7"/>
@@ -3275,7 +3287,7 @@
         <v>30</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>31</v>
@@ -3291,17 +3303,17 @@
         <v>30</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H16" s="32">
         <f t="shared" ref="H16:H17" si="17">IFERROR((RIGHT(G16,LEN(G16)-FIND("-",G16))-LEFT(G16,FIND("-",G16)-1))*24,0)</f>
         <v>11.5</v>
       </c>
       <c r="I16" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="K16" s="32">
         <f t="shared" ref="K16:K17" si="18">IFERROR((RIGHT(J16,LEN(J16)-FIND("-",J16))-LEFT(J16,FIND("-",J16)-1))*24,0)</f>
@@ -3311,7 +3323,7 @@
         <v>30</v>
       </c>
       <c r="M16" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N16" s="32">
         <f t="shared" ref="N16:N17" si="19">IFERROR((RIGHT(M16,LEN(M16)-FIND("-",M16))-LEFT(M16,FIND("-",M16)-1))*24,0)</f>
@@ -3321,17 +3333,17 @@
         <v>30</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q16" s="32">
         <f t="shared" ref="Q16:Q17" si="20">IFERROR((RIGHT(P16,LEN(P16)-FIND("-",P16))-LEFT(P16,FIND("-",P16)-1))*24,0)</f>
         <v>15</v>
       </c>
       <c r="R16" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S16" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T16" s="32">
         <f t="shared" ref="T16:T17" si="21">IFERROR((RIGHT(S16,LEN(S16)-FIND("-",S16))-LEFT(S16,FIND("-",S16)-1))*24,0)</f>
@@ -3361,7 +3373,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>32</v>
@@ -3377,7 +3389,7 @@
         <v>30</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H17" s="32">
         <f t="shared" si="17"/>
@@ -3387,7 +3399,7 @@
         <v>30</v>
       </c>
       <c r="J17" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K17" s="32">
         <f t="shared" si="18"/>
@@ -3397,7 +3409,7 @@
         <v>30</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N17" s="32">
         <f t="shared" si="19"/>
@@ -3407,7 +3419,7 @@
         <v>30</v>
       </c>
       <c r="P17" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q17" s="32">
         <f t="shared" si="20"/>
@@ -3417,7 +3429,7 @@
         <v>30</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T17" s="32">
         <f t="shared" si="21"/>
@@ -3458,7 +3470,7 @@
     </row>
     <row r="18" spans="1:40" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18" s="34"/>
       <c r="C18" s="34"/>
